--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{588F9B31-1D1D-4BFE-8E1C-BD6EEE50CE38}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9574F946-2DF2-4126-87D0-95A5E7B7277E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>14.11.17</t>
   </si>
@@ -105,6 +105,20 @@
   <si>
     <t>-App-Resources (GUI Design)
 -Preperations of Input Options</t>
+  </si>
+  <si>
+    <t>20.10.18</t>
+  </si>
+  <si>
+    <t>-App-Resources (GUI Design)
+-WMI for list of available cameras</t>
+  </si>
+  <si>
+    <t>21.10.18</t>
+  </si>
+  <si>
+    <t>massive timesink on custom styles and templates
+reading up + tutorials</t>
   </si>
 </sst>
 </file>
@@ -139,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -199,11 +213,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -230,6 +270,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +560,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +569,7 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.85546875" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -753,38 +800,56 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C13" s="4">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
-        <v>0.27083333333333331</v>
+        <v>0.22916666666666669</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D15" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="1"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -904,13 +969,14 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>1.7604166666666667</v>
+        <v>2.1145833333333335</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9574F946-2DF2-4126-87D0-95A5E7B7277E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D8C473B-0F2B-4FC0-B542-B7620AD7ABF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>14.11.17</t>
   </si>
@@ -119,6 +119,15 @@
   <si>
     <t>massive timesink on custom styles and templates
 reading up + tutorials</t>
+  </si>
+  <si>
+    <t>25. 10.18</t>
+  </si>
+  <si>
+    <t>-Issues with WMI</t>
+  </si>
+  <si>
+    <t>26. 10.18</t>
   </si>
 </sst>
 </file>
@@ -271,11 +280,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +569,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +837,7 @@
       <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -849,28 +858,44 @@
       <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="D16" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D17" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +994,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.1145833333333335</v>
+        <v>2.2395833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D8C473B-0F2B-4FC0-B542-B7620AD7ABF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A03ED553-B254-4417-AEA9-89235EF3644A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>14.11.17</t>
   </si>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>26. 10.18</t>
+  </si>
+  <si>
+    <t>-Cascasde-Classifier Options and refactoring
+-Timer</t>
   </si>
 </sst>
 </file>
@@ -569,7 +573,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,15 +902,23 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,7 +1006,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.2395833333333335</v>
+        <v>2.3645833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A03ED553-B254-4417-AEA9-89235EF3644A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1997D1F-3550-4A44-A6E1-B5E0E1D0ED60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>14.11.17</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t>26. 10.18</t>
+  </si>
+  <si>
+    <t>-Cascasde-Classifier Options and refactoring</t>
+  </si>
+  <si>
+    <t>30.10.18</t>
+  </si>
+  <si>
+    <t>31.10.18</t>
   </si>
   <si>
     <t>-Cascasde-Classifier Options and refactoring
@@ -573,7 +582,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,34 +911,42 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4">
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D19" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,7 +1023,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.3645833333333335</v>
+        <v>2.625</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1997D1F-3550-4A44-A6E1-B5E0E1D0ED60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2795D13-1F00-499E-95AF-6C66B62A6A91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>14.11.17</t>
   </si>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>31.10.18</t>
-  </si>
-  <si>
-    <t>-Cascasde-Classifier Options and refactoring
--Timer</t>
   </si>
 </sst>
 </file>
@@ -582,7 +578,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +926,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -945,7 +941,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
     </row>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C2795D13-1F00-499E-95AF-6C66B62A6A91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E58B6DE-314B-4B26-825F-E608E4574CB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>14.11.17</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>31.10.18</t>
+  </si>
+  <si>
+    <t>01.11.18</t>
+  </si>
+  <si>
+    <t>-Add Point angle calculation</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,14 +952,22 @@
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1019,7 +1033,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.625</v>
+        <v>2.6875</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7E58B6DE-314B-4B26-825F-E608E4574CB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D80AA22-794E-4DAE-926B-EDB0AB74D55A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>14.11.17</t>
   </si>
@@ -142,7 +142,13 @@
     <t>01.11.18</t>
   </si>
   <si>
-    <t>-Add Point angle calculation</t>
+    <t>-Add eyes angle calculation</t>
+  </si>
+  <si>
+    <t>11.11.18</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,11 +965,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C20" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -971,14 +977,22 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.875</v>
+      </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,7 +1047,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.6875</v>
+        <v>2.90625</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4D80AA22-794E-4DAE-926B-EDB0AB74D55A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80039849-584D-4046-A8EE-9E76F50F5E40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,9 @@
     <t>11.11.18</t>
   </si>
   <si>
-    <t>-</t>
+    <t>-Added timer
+-Added Options for Idling after frame calculation
+-Prepared OutputOptions</t>
   </si>
 </sst>
 </file>
@@ -976,7 +978,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -984,13 +986,13 @@
         <v>0.6875</v>
       </c>
       <c r="C21" s="4">
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
-      </c>
-      <c r="E21" s="6" t="s">
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="1"/>
@@ -1047,7 +1049,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.90625</v>
+        <v>2.8645833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80039849-584D-4046-A8EE-9E76F50F5E40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95D16408-712D-412A-B3BC-8E0AF1E71221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>14.11.17</t>
   </si>
@@ -151,6 +151,12 @@
     <t>-Added timer
 -Added Options for Idling after frame calculation
 -Prepared OutputOptions</t>
+  </si>
+  <si>
+    <t>12.11.18</t>
+  </si>
+  <si>
+    <t>-Output Options</t>
   </si>
 </sst>
 </file>
@@ -592,7 +598,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,14 +1004,22 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.75</v>
+      </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>0.3125</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,7 +1063,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>2.8645833333333335</v>
+        <v>3.1770833333333335</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{95D16408-712D-412A-B3BC-8E0AF1E71221}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18D291CC-40A8-4331-A678-09BD38243701}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>14.11.17</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>-Output Options</t>
+  </si>
+  <si>
+    <t>13.11.18</t>
+  </si>
+  <si>
+    <t>-Mouse Button Simulation</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,11 +1017,11 @@
         <v>0.4375</v>
       </c>
       <c r="C22" s="4">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>42</v>
@@ -1023,14 +1029,22 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="D23" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,7 +1077,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="8">
         <f>SUM(D3:D25)</f>
-        <v>3.1770833333333335</v>
+        <v>3.3333333333333335</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18D291CC-40A8-4331-A678-09BD38243701}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08D694FF-4E68-4CD7-BD38-BD2017951973}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>14.11.17</t>
   </si>
@@ -162,7 +162,13 @@
     <t>13.11.18</t>
   </si>
   <si>
-    <t>-Mouse Button Simulation</t>
+    <t>14.11.18</t>
+  </si>
+  <si>
+    <t>-Implementation of TriggerEvent</t>
+  </si>
+  <si>
+    <t>-Preparing OutputOptions</t>
   </si>
 </sst>
 </file>
@@ -601,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +682,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D25" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D30" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1024,7 +1030,7 @@
         <v>0.34375</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1043,47 +1049,95 @@
         <v>0.125</v>
       </c>
       <c r="E23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.84375</v>
+      </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="6"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="8">
-        <f>SUM(D3:D25)</f>
-        <v>3.3333333333333335</v>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="8">
+        <f>SUM(D3:D30)</f>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08D694FF-4E68-4CD7-BD38-BD2017951973}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{057AAD1A-BCB0-46AA-B80C-FE816E457D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>14.11.17</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>-Preparing OutputOptions</t>
+  </si>
+  <si>
+    <t>15.11.18</t>
+  </si>
+  <si>
+    <t>-Simulated Mousebuttons</t>
+  </si>
+  <si>
+    <t>16.11.18</t>
+  </si>
+  <si>
+    <t>-refactoring</t>
   </si>
 </sst>
 </file>
@@ -607,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +694,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D30" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D35" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1061,11 +1073,11 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="C24" s="4">
-        <v>0.84375</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>42</v>
@@ -1073,19 +1085,41 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333331</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,28 +1150,68 @@
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="6"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="8">
-        <f>SUM(D3:D30)</f>
-        <v>3.75</v>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="8">
+        <f>SUM(D3:D35)</f>
+        <v>4.208333333333333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{057AAD1A-BCB0-46AA-B80C-FE816E457D5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED910EDE-4EBF-4CE8-93CC-FC8DB9FA43F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>14.11.17</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>-refactoring</t>
+  </si>
+  <si>
+    <t>19.11.18</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,11 +1114,11 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="C26" s="4">
-        <v>0.63541666666666663</v>
+        <v>0.59375</v>
       </c>
       <c r="D26" s="9">
         <f t="shared" si="0"/>
-        <v>0.20833333333333331</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>50</v>
@@ -1123,11 +1126,22 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1205,7 +1219,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="8">
         <f>SUM(D3:D35)</f>
-        <v>4.208333333333333</v>
+        <v>4.4583333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED910EDE-4EBF-4CE8-93CC-FC8DB9FA43F1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{109C325E-7663-4DAD-BC57-42445134C99F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>14.11.17</t>
   </si>
@@ -184,6 +184,18 @@
   </si>
   <si>
     <t>19.11.18</t>
+  </si>
+  <si>
+    <t>21.11 18</t>
+  </si>
+  <si>
+    <t>-reading up on WPF features for some planned features (sytem tray icon)</t>
+  </si>
+  <si>
+    <t>22.11.18</t>
+  </si>
+  <si>
+    <t>-reading up on app deployment (squirrel)</t>
   </si>
 </sst>
 </file>
@@ -624,15 +636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.85546875" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" customWidth="1"/>
   </cols>
@@ -697,7 +709,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D35" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D29" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1145,19 +1157,41 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6"/>
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="6"/>
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,10 +1238,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D35" s="9"/>
       <c r="E35" s="6"/>
       <c r="F35" s="1"/>
     </row>
@@ -1219,7 +1250,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="8">
         <f>SUM(D3:D35)</f>
-        <v>4.4583333333333339</v>
+        <v>4.7500000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{109C325E-7663-4DAD-BC57-42445134C99F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5270F6EA-1BD6-4ACA-8F14-22B75EDC4C36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,11 +1183,11 @@
         <v>0.5</v>
       </c>
       <c r="C29" s="4">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.1875</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>55</v>
@@ -1250,7 +1250,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="8">
         <f>SUM(D3:D35)</f>
-        <v>4.7500000000000009</v>
+        <v>4.6875000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5270F6EA-1BD6-4ACA-8F14-22B75EDC4C36}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{706640AE-68DC-43B1-ACAA-2560D62C1957}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>14.11.17</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>-reading up on app deployment (squirrel)</t>
+  </si>
+  <si>
+    <t>24.11.18</t>
+  </si>
+  <si>
+    <t>-squirrel</t>
+  </si>
+  <si>
+    <t>26.11.18</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +718,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D29" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D31" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1195,19 +1204,41 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1250,7 +1281,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="8">
         <f>SUM(D3:D35)</f>
-        <v>4.6875000000000009</v>
+        <v>5.2291666666666679</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{706640AE-68DC-43B1-ACAA-2560D62C1957}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C26DD74-07F5-46FC-92F3-E86C3467F09C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>14.11.17</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>26.11.18</t>
+  </si>
+  <si>
+    <t>28.11.18</t>
   </si>
 </sst>
 </file>
@@ -643,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +721,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D31" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D32" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1242,11 +1245,22 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1274,20 +1288,52 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="8">
-        <f>SUM(D3:D35)</f>
-        <v>5.2291666666666679</v>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="8">
+        <f>SUM(D3:D39)</f>
+        <v>5.3645833333333348</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C26DD74-07F5-46FC-92F3-E86C3467F09C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1AE6730E-F5CB-43AD-BE4C-02EF7E7F463B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>14.11.17</t>
   </si>
@@ -208,6 +208,13 @@
   </si>
   <si>
     <t>28.11.18</t>
+  </si>
+  <si>
+    <t>01.12.18</t>
+  </si>
+  <si>
+    <t>-Open External Software
+-Tooltipps</t>
   </si>
 </sst>
 </file>
@@ -649,7 +656,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +728,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D32" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D33" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1263,12 +1270,23 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
+    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,7 +1345,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="8">
         <f>SUM(D3:D39)</f>
-        <v>5.3645833333333348</v>
+        <v>5.6770833333333348</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1AE6730E-F5CB-43AD-BE4C-02EF7E7F463B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80C4274B-CB8F-4E76-8637-ABF7CF039A70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>14.11.17</t>
   </si>
@@ -215,6 +215,9 @@
   <si>
     <t>-Open External Software
 -Tooltipps</t>
+  </si>
+  <si>
+    <t>02.12.18</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +731,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D33" si="0">C4-B4</f>
+        <f t="shared" ref="D4:D34" si="0">C4-B4</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1289,12 +1292,23 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
+    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1345,7 +1359,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="8">
         <f>SUM(D3:D39)</f>
-        <v>5.6770833333333348</v>
+        <v>6.0104166666666679</v>
       </c>
     </row>
   </sheetData>

--- a/VisualDetection/!diary.xlsx
+++ b/VisualDetection/!diary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{80C4274B-CB8F-4E76-8637-ABF7CF039A70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F9C473F-5EAD-430F-AF12-5710F79E02C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1300,11 +1300,11 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C34" s="4">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="D34" s="9">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>61</v>
@@ -1359,7 +1359,7 @@
       <c r="C40" s="14"/>
       <c r="D40" s="8">
         <f>SUM(D3:D39)</f>
-        <v>6.0104166666666679</v>
+        <v>6.0312500000000018</v>
       </c>
     </row>
   </sheetData>
